--- a/file/시간 계산기.xlsx
+++ b/file/시간 계산기.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>After Like</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>퀸카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼샤이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +399,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,7 +460,13 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>175000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -457,7 +475,13 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>196000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -466,7 +490,13 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>196000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,25 +505,58 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>162000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>198000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
